--- a/assets/grades.xlsx
+++ b/assets/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/MATH220-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867C503E-74B5-7245-B724-D9808CB104C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AA9E5-3557-DE48-825E-DA1F42AEB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4582E4CD-5465-DD4C-9E97-41DC8F65BFAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Assignment</t>
   </si>
@@ -53,7 +53,7 @@
     <t>In-Class</t>
   </si>
   <si>
-    <t>Midterm</t>
+    <t>Quizzes</t>
   </si>
 </sst>
 </file>
@@ -270,6 +270,9 @@
                 <c:pt idx="0">
                   <c:v>Homeworks</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>Quizzes</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>In-Class</c:v>
                 </c:pt>
@@ -286,10 +289,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
@@ -300,250 +306,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51A2-D445-BD3B-0B8E17AB09B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$12:$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Homeworks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Midterm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>In-Class</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Final Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-751D-B049-8973-115C5C10247D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -650,566 +412,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1761,42 +964,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2106291F-1BE1-E5E2-F739-8C346A6660B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2102,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E9686-A9DF-CD48-B752-3B95B96126E1}">
-  <dimension ref="B4:C16"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2126,7 +1293,15 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -2134,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -2151,52 +1326,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <f>SUM(C12:C15)</f>
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
